--- a/ListOfNodes.xlsx
+++ b/ListOfNodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
   <si>
     <t xml:space="preserve">WHO?</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">IRENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">SuperConstructorInvocation</t>
@@ -425,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,6 +467,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -553,13 +560,14 @@
   </sheetPr>
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.035714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="117.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.89795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,138 +987,163 @@
       <c r="B68" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="C68" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1142,7 +1175,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.89795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,7 +1230,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3"/>
     </row>
@@ -1271,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,133 +1423,133 @@
       <c r="B40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>96</v>
+      <c r="B41" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="11"/>
+      <c r="B54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,109 +1560,109 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="5"/>
     </row>
